--- a/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R74-ModeFixa" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
+++ b/ig/main/ValueSet-JDV-J259-ModeFixationTarifaire-RASS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
